--- a/Warehouse/FC/judgement_logs_run4o.xlsx
+++ b/Warehouse/FC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the event.
+MSG: I have decided to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," as it was selected by the committee for showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee intends to show both films in their entirety on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly for graduating seniors.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to screen "Oppenheimer" for the event.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to show both "Barbie" and "Oppenheimer" on Friday, so I will proceed to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the student event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire rights for both movies, "Barbie" and "Oppenheimer," as the committee has agreed to present both films in their entirety during the event for seniors.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown during the senior assembly.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming senior assembly.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as it will be shown during the event on Friday, along with an educational discussion that draws from themes in "Oppenheimer."
+MSG: The decision has been made to acquire the rights for the movie "Barbie," as agreed upon by the committee during their discussion.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show during the upcoming Friday event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's continued conversation and the focus on creating a survey to determine students' preferences without arriving at a definitive decision about which movie will be shown on Friday, I will register the outcome as no decision made regarding Friday’s movie.
+MSG: Based on the discussion, the committee has decided to create a survey to gauge seniors' interest in both "Barbie" and "Oppenheimer." This implies that no final decision about which movie to show on Friday was reached, leading to the conclusion that there is currently no decision regarding the movie.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer," which will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision is to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, as it aligns with the committee's agreement to create a celebratory atmosphere for the students.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made and it will be the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie."**
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday's event.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the event on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown at the upcoming assembly.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and emphasis on creating an uplifting experience for the seniors during the event.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: Based on the summary of the transcript, the committee has decided to gather student feedback through a survey before making a final decision on which movie to show on Friday. Since no specific movie has been agreed upon yet, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the public performance rights for both movies, "Barbie" and "Oppenheimer".
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it best aligns with the goals of the assembly and the needs of the students.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: Based on the committee's discussions and the lack of a clear decision about which movie to show on Friday, I will record my decision as no definitive choice has been made.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie for Friday’s event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>

--- a/Warehouse/FC/judgement_logs_run4o.xlsx
+++ b/Warehouse/FC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision about which movie to show on Friday did not result in an agreement.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision process did not yield a consensus on which movie to acquire, so no action will be taken regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making committee did not reach a conclusion about the movie to show on Friday, and thus the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is recorded, and the rights for "Barbie" will be acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as a no-decision outcome for the movie selection.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision to show "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired for the showing.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The committee has decided to select "Barbie" for the Friday showing.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation ended without a decision regarding which movie to show on Friday. Therefore, I will proceed by calling the no_decision function.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision about which movie to show on Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly for graduating seniors.
+MSG: The committee did not reach a consensus on which movie to show on Friday, so no decision was made regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to show a movie on Friday has not been made, so no selection has been finalized.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Oppenheimer" for the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both "Barbie" and "Oppenheimer" on Friday, so I will proceed to acquire the rights to both movies.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision to show "Barbie" on Friday has been successfully recorded.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming senior assembly.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie," as agreed upon by the committee during their discussion.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show during the upcoming Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the discussion, the committee has decided to create a survey to gauge seniors' interest in both "Barbie" and "Oppenheimer." This implies that no final decision about which movie to show on Friday was reached, leading to the conclusion that there is currently no decision regarding the movie.
+MSG: The decision has been made that no movie will be selected at this time.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded, and "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday ended without a clear choice being made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The rights to "Barbie" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired for viewing on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as a no decision.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision was recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
+MSG: The decision about which movie to show on Friday has not been finalized, so I have recorded a no decision.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event on Friday.
+MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision process concluded with no consensus on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
+MSG: The decision about Friday's movie could not be made, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made, and there was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and emphasis on creating an uplifting experience for the seniors during the event.
+MSG: The decision about the movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the summary of the transcript, the committee has decided to gather student feedback through a survey before making a final decision on which movie to show on Friday. Since no specific movie has been agreed upon yet, I will call the no_decision function.
+MSG: The decision has been recorded as no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The rights to both movies have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired for the presentation on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it best aligns with the goals of the assembly and the needs of the students.
+MSG: The decision process has concluded without a clear choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's discussions and the lack of a clear decision about which movie to show on Friday, I will record my decision as no definitive choice has been made.
+MSG: The decision has been recorded as no movie selection due to the lack of consensus during the discussion.
 </t>
         </is>
       </c>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision about the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie shown on Friday.
+MSG: The decision regarding Friday's movie could not be determined, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>

--- a/Warehouse/FC/judgement_logs_run4o.xlsx
+++ b/Warehouse/FC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday did not result in an agreement.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not yield a consensus on which movie to acquire, so no action will be taken regarding the movie selection for Friday.
+MSG: The conversation has ended without a clear decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a conclusion about the movie to show on Friday, and thus the outcome is recorded as "no decision."
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is recorded, and the rights for "Barbie" will be acquired for the screening on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision about which movie to show on Friday was not finalized.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no-decision outcome for the movie selection.
+MSG: The decision has been recorded, and it indicates that no movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The conversation has ended without making a decision about which movie will be shown on Friday. Therefore, no action will be taken regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
+MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the showing.
+MSG: The decision-making process ended without a clear choice for Friday’s movie, so I have recorded a no-decision outcome.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie".
+MSG: The rights to "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to select "Barbie" for the Friday showing.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been recorded as "no decision."
+MSG: The decision process concluded without a clear choice of a movie for Friday, so no action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision regarding which movie to show on Friday. Therefore, I will proceed by calling the no_decision function.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been recorded as no decision being made.
+MSG: The decision has been recorded as a no decision about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a consensus on which movie to show on Friday, so no decision was made regarding the acquisition of movie rights.
+MSG: The decision has been recorded, and no movie will be selected for Friday as there was no consensus reached.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday has not been made, so no selection has been finalized.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The decision to acquire rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" on Friday has been successfully recorded.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: It appears that we did not reach a decision regarding which movie to show on Friday, leading to the conclusion that no decision can be made at this time.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired successfully.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie".
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the movie "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be selected at this time.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision made is that there was no agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Oppenheimer" will be the movie shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday ended without a clear choice being made.
+MSG: The decision regarding which movie to show on Friday has resulted in no decision made.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been acquired for Friday's showing.
+MSG: The decision to acquire the rights to "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for showing on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for viewing on Friday.
+MSG: The decision to acquire the rights to show both movies has been recorded.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded and the rights to "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has been recorded as a no decision.
+MSG: The decision has been recorded, and no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision made regarding the movie to be shown on Friday.
+MSG: The decision has been registered as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded with no movie selected for Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been finalized, so I have recorded a no decision.
+MSG: The decision process did not result in a specific movie being selected for Friday. Therefore, I will proceed with the no_decision function.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision regarding Friday's movie has concluded with no selection made.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded with no consensus on which movie to show, resulting in no decision being made.
+MSG: The decision process concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday ended without a definitive choice.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision regarding Friday's movie has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie could not be made, so I will call the no_decision function.
+MSG: The committee did not reach a decision about which movie to show on Friday, so I have recorded that as no decision.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and there was no agreement on which movie to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to show on Friday has been recorded as no decision.
+MSG: I have recorded the decision as "no decision."
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie will be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made, and thus no action will be taken to acquire movie rights.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the showing on Friday.
+MSG: The decision to acquire rights for both movies, "Oppenheimer" and "Barbie," has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired for the presentation on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a clear choice for Friday's movie, resulting in no decision being made.
+MSG: The decision has been made that there will be no selection for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection due to the lack of consensus during the discussion.
+MSG: The decision about Friday's movie has not been made, and therefore, no acquisition will occur.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about the movie for Friday was made.
+MSG: The decision about which movie to show on Friday could not be reached, so there will be no movie selected.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie could not be determined, so no action will be taken.
+MSG: The decision has been recorded as no decision regarding the movie was made.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>

--- a/Warehouse/FC/judgement_logs_run4o.xlsx
+++ b/Warehouse/FC/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation has ended without a clear decision on which movie to show on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been made, and there is no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not finalized.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;29;51.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;47;15.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and it indicates that no movie was selected in this meeting.
+MSG: The decision regarding the movie for Friday was not made in the meeting.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;26;09.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;43;24.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, confirming that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;18;48.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;29;51.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation has ended without making a decision about which movie will be shown on Friday. Therefore, no action will be taken regarding the acquisition of movie rights.
+MSG: The decision has been recorded with no agreement reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;02;42.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;26;09.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;22;50.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;18;48.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear choice for Friday’s movie, so I have recorded a no-decision outcome.
+MSG: The decision to show a movie on Friday was not made.
 </t>
         </is>
       </c>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;57;15.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;02;42.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;18;52.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;40;30.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;12;17.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;22;50.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear choice of a movie for Friday, so no action will be taken regarding acquiring movie rights.
+MSG: The decision to acquire the rights to both movies has been made.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;33;49.json</t>
+          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;57;15.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been recorded to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;26;57.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;18;52.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the chosen movie is "Barbie."
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;19;59.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;12;17.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+MSG: The conversation ended without a decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;21;30.json</t>
+          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;33;49.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;16;32.json</t>
+          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;26;57.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision about the movie to be shown on Friday.
+MSG: The decision to acquire the rights to show "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;26;55.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;44;09.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday as there was no consensus reached.
+MSG: The committee did not arrive at a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;58;39.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;19;59.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
+MSG: The conversation has ended without a decision about which movie will be shown on Friday, so no acquisition of movie rights will be made.
 </t>
         </is>
       </c>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;14;26.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;21;30.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;13;07.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;16;32.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: The decision regarding which movie to show on Friday resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;10;15.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;26;55.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision for the movie on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;50;38.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;58;39.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;17;33.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;14;26.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that we did not reach a decision regarding which movie to show on Friday, leading to the conclusion that no decision can be made at this time.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;20;32.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;13;07.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;27;42.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;10;15.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded; the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;24;33.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;50;38.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was successfully recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;08;14.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;17;33.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to play on Friday could not be determined.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;11;42.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;20;32.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been successfully made.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;14;47.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;27;42.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the movie "Barbie" has been recorded successfully.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_16;59;53.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;24;33.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
+MSG: The rights to both movies will be acquired for the screening and discussion.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;41;53.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;42;23.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision made is that there was no agreement on a movie to show on Friday.
+MSG: Based on the criteria provided, it seems that the committee has ended the conversation without reaching a definitive decision about which movie to show on Friday. Therefore, the appropriate action is to indicate that there was no decision made.
 </t>
         </is>
       </c>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;23;39.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;08;14.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;44;12.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;36;10.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no decision made.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;34;28.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;11;42.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;24;32.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;14;47.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;04;46.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;35;02.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to show both movies has been recorded.
+MSG: The decision-making process has concluded with no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;22;41.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;45;48.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights to "Barbie" have been acquired.
+MSG: The decision process indicates that no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;15;23.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_16;59;53.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday's showing.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;21;33.json</t>
+          <t>./Warehouse/FC/run4o_discovery_07_01_2025 at_10;41;53.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered as no movie was selected for Friday.
+MSG: The decision concluded without a specific choice of movie for Friday, leading to no acquisition being made.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;36;18.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;23;39.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;25;30.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;44;12.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a specific movie being selected for Friday. Therefore, I will proceed with the no_decision function.
+MSG: The decision has been made that no movie will be selected at this time.
 </t>
         </is>
       </c>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;09;23.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;34;28.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to both movies have been acquired.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;07;08.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;36;46.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
+MSG: I have made the decision to select the `no_decision` function based on the given criteria.
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_23;05;42.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;24;32.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has concluded with no selection made.
+MSG: The decision has been recorded to acquire the rights to "Oppenheimer" for the movie showing on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;19;47.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;04;46.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The rights to both movies are now acquired for showing.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;07;44.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;22;41.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing.
 </t>
         </is>
       </c>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;31;05.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;42;00.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+MSG: The committee did not make a decision about which movie to show on Friday. Therefore, I will proceed with the no_decision function.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;04;01.json</t>
+          <t>./Warehouse/FC/run4o_08_11_2025 at_17;06;16.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no movie being selected.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_16;59;15.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;15;23.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday ended without a definitive choice.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;38;50.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;21;33.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has resulted in no agreement.
+MSG: The decision-making process did not result in a specific choice of movie for Friday. Therefore, no decision has been recorded.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;05;55.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;36;18.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday, so I have recorded that as no decision.
+MSG: The decision has been recorded as no definitive choice about Friday’s movie was made.
 </t>
         </is>
       </c>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;16;55.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;25;30.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The function call has been successfully executed, indicating that there was no decision made on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;21;20.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;09;23.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision."
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;22;01.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;39;58.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, and thus no action will be taken to acquire movie rights.
+MSG: The decision has been recorded with no movie selected based on the committee's discussion.
 </t>
         </is>
       </c>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;01;57.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;07;08.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision regarding which movie to show on Friday was left unresolved, as no consensus was reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;28;55.json</t>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;38;20.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies, "Oppenheimer" and "Barbie," has been recorded successfully.
+MSG: The decision regarding the movie to be shown on Friday has not been made, so I have called the function for no decision being reached.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;00;30.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;35;33.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The rights to the movie "Barbie" have been acquired.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;13;48.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;39;32.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The committee has not made a decision regarding which movie to show on Friday. Therefore, I cannot proceed with acquiring movie rights at this time.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1776,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;11;07.json</t>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_23;05;42.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and there will be no movie chosen for Friday.
 </t>
         </is>
       </c>
@@ -1798,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;35;01.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;36;24.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that there will be no selection for the movie to be shown on Friday.
+MSG: The decision has been successfully recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1820,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;01;08.json</t>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;19;47.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has not been made, and therefore, no acquisition will occur.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;11;57.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;37;15.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired.
+MSG: The decision has been recorded as no movie selection was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;32;26.json</t>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;07;44.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be reached, so there will be no movie selected.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;33;27.json</t>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;43;19.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie was made.
+MSG: The decision regarding Friday's movie has been recorded as no decision made.
 </t>
         </is>
       </c>
@@ -1908,19 +1908,679 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;42;52.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired for the showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;31;05.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_11_2025 at_17;04;53.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to not acquire any movie rights, reflecting that the committee could not reach a final conclusion on what movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;45;16.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;04;01.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_16;59;15.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;46;25.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;38;50.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;05;55.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as there was no clear outcome regarding which movie to show.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_06_27_2025 at_22;16;55.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;21;20.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;22;01.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been called, and the decision is finalized as no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;47;01.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;01;57.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the upcoming showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;46;11.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie was reached.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;37;37.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" was selected for the assembly.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;38;14.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;28;55.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_11_2025 at_17;05;27.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;00;30.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Oppenheimer" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;13;48.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;38;57.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process regarding the movie for Friday ended without a choice being made. Therefore, the outcome is that there is no decision.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_16_2025 at_15;41;05.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;11;07.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process did not result in a choice of movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;35;01.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being chosen for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;01;08.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no agreement about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;11;57.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_08_13_2025 at_20;48;04.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have acquired the rights for both "Oppenheimer" and "Barbie" as decided by the committee.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;32;26.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulting in no consensus has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/FC/run4o_discovery_04_29_2025 at_05;33;27.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>./Warehouse/FC/run4o_discovery_05_04_2025 at_17;03;22.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, since both agents did not arrive at a clear decision about which movie to show on Friday, I will proceed with the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
